--- a/test/新建 Microsoft Excel 工作表.xlsx
+++ b/test/新建 Microsoft Excel 工作表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\legendzzy\Documents\GitHub\test-test-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\legendzzy\Documents\GitHub\test-test-test\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FFA5E1-3F45-44C9-AB0E-D4A89B290018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9855B1-B0E3-46AB-BC14-2A07DF108D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
